--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T12:56:07+00:00</t>
+    <t>2024-05-22T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:16:08+00:00</t>
+    <t>2024-05-22T14:26:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T14:26:25+00:00</t>
+    <t>2024-05-23T06:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:15:20+00:00</t>
+    <t>2024-05-23T06:28:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:28:06+00:00</t>
+    <t>2024-05-23T06:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:36:57+00:00</t>
+    <t>2024-05-23T06:53:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T06:53:44+00:00</t>
+    <t>2024-05-23T09:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T09:15:19+00:00</t>
+    <t>2024-05-23T10:26:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:26:48+00:00</t>
+    <t>2024-05-24T08:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,7 +471,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
+    <t>Authorization number</t>
   </si>
   <si>
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
@@ -766,6 +766,9 @@
     <t>RegulatedAuthorization.status</t>
   </si>
   <si>
+    <t>Authorization status</t>
+  </si>
+  <si>
     <t>preferred</t>
   </si>
   <si>
@@ -911,7 +914,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t>The organization that has been granted this authorization, by the regulator</t>
+    <t>Authorization holder</t>
   </si>
   <si>
     <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>
@@ -4102,7 +4105,7 @@
         <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>221</v>
@@ -4134,13 +4137,13 @@
         <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>74</v>
@@ -4184,10 +4187,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4293,10 +4296,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4404,10 +4407,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4430,19 +4433,19 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>74</v>
@@ -4471,7 +4474,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>74</v>
@@ -4489,7 +4492,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4501,7 +4504,7 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4510,15 +4513,15 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4544,16 +4547,16 @@
         <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4602,7 +4605,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4623,15 +4626,15 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4654,13 +4657,13 @@
         <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4711,7 +4714,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4729,7 +4732,7 @@
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>74</v>
@@ -4737,10 +4740,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4766,10 +4769,10 @@
         <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4820,7 +4823,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4838,7 +4841,7 @@
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>74</v>
@@ -4846,10 +4849,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4872,13 +4875,13 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4929,7 +4932,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4955,10 +4958,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4984,10 +4987,10 @@
         <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5014,13 +5017,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -5038,7 +5041,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -5064,10 +5067,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5093,10 +5096,10 @@
         <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5126,10 +5129,10 @@
         <v>224</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -5147,7 +5150,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5165,7 +5168,7 @@
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>74</v>
@@ -5173,10 +5176,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5202,10 +5205,10 @@
         <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5256,7 +5259,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5274,7 +5277,7 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>74</v>
@@ -5282,10 +5285,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5391,10 +5394,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5502,10 +5505,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5531,13 +5534,13 @@
         <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5587,7 +5590,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5596,7 +5599,7 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>97</v>
@@ -5613,10 +5616,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5642,13 +5645,13 @@
         <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5677,10 +5680,10 @@
         <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5698,7 +5701,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5724,10 +5727,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5750,16 +5753,16 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5809,7 +5812,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5818,7 +5821,7 @@
         <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>97</v>
@@ -5830,15 +5833,15 @@
         <v>74</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5944,10 +5947,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6055,10 +6058,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6168,10 +6171,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6281,10 +6284,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6329,7 +6332,7 @@
         <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>188</v>
@@ -6394,10 +6397,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6423,7 +6426,7 @@
         <v>192</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>194</v>
@@ -6505,10 +6508,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6614,10 +6617,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6725,10 +6728,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6754,13 +6757,13 @@
         <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6810,7 +6813,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6819,7 +6822,7 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>97</v>
@@ -6836,10 +6839,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6865,10 +6868,10 @@
         <v>207</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6919,7 +6922,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6937,7 +6940,7 @@
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>74</v>
@@ -6945,10 +6948,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6971,13 +6974,13 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7028,7 +7031,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -7054,10 +7057,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7080,13 +7083,13 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7137,7 +7140,7 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>75</v>
@@ -7155,7 +7158,7 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>74</v>
@@ -7163,10 +7166,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7272,10 +7275,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7383,14 +7386,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7412,10 +7415,10 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>136</v>
@@ -7470,7 +7473,7 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
@@ -7496,10 +7499,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7522,13 +7525,13 @@
         <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7579,7 +7582,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7597,7 +7600,7 @@
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>74</v>
@@ -7605,10 +7608,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7634,10 +7637,10 @@
         <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7667,10 +7670,10 @@
         <v>224</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>74</v>
@@ -7688,7 +7691,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7706,7 +7709,7 @@
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>74</v>
@@ -7714,10 +7717,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7743,10 +7746,10 @@
         <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7773,13 +7776,13 @@
         <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>74</v>
@@ -7797,7 +7800,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7823,10 +7826,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7849,13 +7852,13 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7906,7 +7909,7 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
@@ -7924,7 +7927,7 @@
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>74</v>
@@ -7932,10 +7935,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7961,10 +7964,10 @@
         <v>77</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8015,7 +8018,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -8033,7 +8036,7 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>74</v>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:22:08+00:00</t>
+    <t>2024-05-24T08:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T08:36:03+00:00</t>
+    <t>2024-05-24T09:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,7 +471,7 @@
 </t>
   </si>
   <si>
-    <t>Authorization number</t>
+    <t>Business identifier for the authorization, typically assigned by the authorizing body (authorization number)</t>
   </si>
   <si>
     <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
@@ -766,7 +766,7 @@
     <t>RegulatedAuthorization.status</t>
   </si>
   <si>
-    <t>Authorization status</t>
+    <t>The status that is authorised e.g. approved. Intermediate states can be tracked with cases and applications (authorization status)</t>
   </si>
   <si>
     <t>preferred</t>
@@ -914,7 +914,7 @@
     <t>RegulatedAuthorization.holder</t>
   </si>
   <si>
-    <t>Authorization holder</t>
+    <t>The organization that has been granted this authorization, by the regulator (authorization holder)</t>
   </si>
   <si>
     <t>The organization that has been granted this authorization, by some authoritative body (the 'regulator').</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T09:29:16+00:00</t>
+    <t>2024-05-24T10:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:07:38+00:00</t>
+    <t>2024-05-24T10:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-24T10:20:13+00:00</t>
+    <t>2024-05-27T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:50:10+00:00</t>
+    <t>2024-05-27T09:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1033,7 +1033,7 @@
     <t>RegulatedAuthorization.holder.display</t>
   </si>
   <si>
-    <t>Text alternative for the resource</t>
+    <t>The name of the marketing authorisation holder</t>
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>85</v>

--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-medprod-marketingRegulatedAuthorization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:11:44+00:00</t>
+    <t>2024-05-27T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
